--- a/data/trans_camb/CAGE_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.3004122562434886</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5270588057225266</v>
+        <v>0.5270588057225264</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4554739698918805</v>
+        <v>-0.4542016669279683</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6829224796862944</v>
+        <v>-0.729050674187562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9437255765048946</v>
+        <v>-0.7940325265924567</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1709740692474733</v>
+        <v>-0.1431934946669697</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2561601908469169</v>
+        <v>-0.2613920326936697</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.03260734373069202</v>
+        <v>-0.07537023377347939</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.533147632706758</v>
+        <v>1.545704321124142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.373304547674347</v>
+        <v>1.278372495624584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.225474352198919</v>
+        <v>1.341091245653721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.641875183936733</v>
+        <v>0.8304733082457559</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9917619829063016</v>
+        <v>0.8934123002544376</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.669667754640713</v>
+        <v>2.819074785517427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8650460376268549</v>
+        <v>0.8831979078317521</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8618528350739788</v>
+        <v>0.8935180379309678</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.463512169734223</v>
+        <v>1.39783205847982</v>
       </c>
     </row>
     <row r="7">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5777843042228784</v>
+        <v>-0.5355515843955257</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7283936688850794</v>
+        <v>-0.8039290839302626</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8429313570729582</v>
+        <v>-0.8442930918088813</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.528289160801925</v>
+        <v>-0.4121622941210252</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6274074660863258</v>
+        <v>-0.5862337400591091</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3885756304662301</v>
+        <v>-0.4986594183362872</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.862749280077016</v>
+        <v>5.932626838414288</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.116862443672354</v>
+        <v>5.270424467244792</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.776188284268959</v>
+        <v>4.818567320081011</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>6.90103314236731</v>
+        <v>7.131755533545755</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.391767493505496</v>
+        <v>7.59391067179099</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>13.22858814743382</v>
+        <v>12.83586701123425</v>
       </c>
     </row>
     <row r="10">
@@ -872,7 +872,7 @@
         <v>0.8210659056510746</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.67429930582124</v>
+        <v>1.674299305821239</v>
       </c>
     </row>
     <row r="11">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2453334245699241</v>
+        <v>-0.2580157313258846</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.310823265656155</v>
+        <v>0.4674873962454359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1356148231241124</v>
+        <v>0.0457507783363703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3268344839339123</v>
+        <v>-0.3333082699309693</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1390843542963699</v>
+        <v>-0.1252641945915037</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9432877443680194</v>
+        <v>0.8817911478195807</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1642127046983174</v>
+        <v>-0.2036782492108852</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2607733943490136</v>
+        <v>0.2420874034047651</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8568367426832355</v>
+        <v>0.7346990774089169</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.694810964064954</v>
+        <v>1.687200432875035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.776001590600354</v>
+        <v>2.717290455381065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.647623827635884</v>
+        <v>2.801897104513187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1922868218828307</v>
+        <v>0.1918843664083938</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6380404660211388</v>
+        <v>0.6701620242241192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.599989898674579</v>
+        <v>5.271621186555142</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9283878641267985</v>
+        <v>0.8899699044962708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.478813648925685</v>
+        <v>1.446421896055687</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.953519103552369</v>
+        <v>2.968791249726551</v>
       </c>
     </row>
     <row r="13">
@@ -959,7 +959,7 @@
         <v>2.025073782223599</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.573822259858322</v>
+        <v>1.573822259858321</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.102259286216455</v>
@@ -977,7 +977,7 @@
         <v>1.966431219006828</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>4.00990274016749</v>
+        <v>4.009902740167489</v>
       </c>
     </row>
     <row r="14">
@@ -988,25 +988,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3298589548953775</v>
+        <v>-0.4044957492299346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1572175710399671</v>
+        <v>0.1529992651808673</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.009498867017873206</v>
+        <v>-0.0730334649573348</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.3469384618086013</v>
+        <v>-0.4393207734262656</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3024844182530839</v>
+        <v>0.1129819773844555</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.191493906988749</v>
+        <v>1.060452547101672</v>
       </c>
     </row>
     <row r="15">
@@ -1017,25 +1017,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.748209352571501</v>
+        <v>4.006275552423018</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7.412531768524498</v>
+        <v>6.937045888690293</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.053504892872295</v>
+        <v>6.950581810380482</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4.237295948892266</v>
+        <v>3.776316002747576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.27626193175371</v>
+        <v>5.88939993067784</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13.59547026398121</v>
+        <v>11.8745619069073</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.003840401588907274</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.053477767442662</v>
+        <v>2.053477767442663</v>
       </c>
     </row>
     <row r="17">
@@ -1085,29 +1085,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1363567222898347</v>
+        <v>0.1039806293600547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.080976721739739</v>
+        <v>-0.9792359496331036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002314689415607995</v>
+        <v>0.1592674536432744</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.6908702292771556</v>
+        <v>0.7110445098763131</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1360310862629301</v>
+        <v>0.1567130983646072</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5069209013945453</v>
+        <v>-0.4922237297686824</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7332155446549045</v>
+        <v>0.8134845032497031</v>
       </c>
     </row>
     <row r="18">
@@ -1118,29 +1118,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.007056447964023</v>
+        <v>2.931740238218893</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9965414744059191</v>
+        <v>1.022384728789884</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.258517967685428</v>
+        <v>4.841322513455351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6421552538446706</v>
+        <v>0.6924613355409113</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>6.310314013932676</v>
+        <v>7.109162895455144</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.530281023429334</v>
+        <v>1.501305073473033</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5268031589328998</v>
+        <v>0.4918109885263986</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.013818200821114</v>
+        <v>4.088622624275941</v>
       </c>
     </row>
     <row r="19">
@@ -1177,7 +1177,7 @@
         <v>-0.00786991651636423</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4.208075177518617</v>
+        <v>4.208075177518618</v>
       </c>
     </row>
     <row r="20">
@@ -1188,25 +1188,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0226868087265524</v>
+        <v>-0.08549123424428644</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7559227743131147</v>
+        <v>-0.6966870218353712</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2187171129093783</v>
+        <v>-0.1218963220360735</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.006477809640076326</v>
+        <v>0.1128489514124651</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.741822004528215</v>
+        <v>-0.6983905640713927</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7514160903638795</v>
+        <v>0.8544285821496685</v>
       </c>
     </row>
     <row r="21">
@@ -1217,25 +1217,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.961852996753037</v>
+        <v>5.447280330562348</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.287998507797936</v>
+        <v>2.179772281454984</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.684933912478596</v>
+        <v>8.514469036816388</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.804513931792052</v>
+        <v>5.78935037384869</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.403862804117193</v>
+        <v>2.146341261056782</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>14.60242430576858</v>
+        <v>14.62655161596389</v>
       </c>
     </row>
     <row r="22">
@@ -1274,7 +1274,7 @@
         <v>0.4265755860573969</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.354968413414187</v>
+        <v>2.354968413414186</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6917031733041211</v>
+        <v>0.6568089115943661</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4293764629516451</v>
+        <v>-0.3878435717081591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.570351588327278</v>
+        <v>1.512568944531816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.343239253770935</v>
+        <v>-1.468152429919629</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.494628816792068</v>
+        <v>-0.5308767460829787</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3631237749176929</v>
+        <v>-0.4694879355546119</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1021648362318017</v>
+        <v>-0.1441708660506354</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1585971140870481</v>
+        <v>-0.2313243495879309</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.265612357379133</v>
+        <v>1.17737443709405</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.081375846527633</v>
+        <v>3.211807929170948</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.517127174035868</v>
+        <v>1.4028282797441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.657177369747705</v>
+        <v>5.415320961356412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.009249946885771555</v>
+        <v>-0.07578025913188911</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.271828977434706</v>
+        <v>1.223892277925994</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.445856911411679</v>
+        <v>3.510197123322945</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.251046989227391</v>
+        <v>1.311272391553212</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.112112051464794</v>
+        <v>1.114768361479689</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.126638379981862</v>
+        <v>3.815941344142479</v>
       </c>
     </row>
     <row r="25">
@@ -1379,7 +1379,7 @@
         <v>0.5411656634301405</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.987578486572919</v>
+        <v>2.987578486572918</v>
       </c>
     </row>
     <row r="26">
@@ -1390,31 +1390,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3957103051831964</v>
+        <v>0.2851632847640891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4452701270918208</v>
+        <v>-0.3871504047106156</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.9446165183823286</v>
+        <v>1.131881930714816</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4845311903292928</v>
+        <v>-0.5306233190740414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5999831897336229</v>
+        <v>-0.5740483980235667</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1268214718873362</v>
+        <v>-0.1751942470542844</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1955531587491734</v>
+        <v>-0.2459199145551386</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.047955115710864</v>
+        <v>1.081603568684674</v>
       </c>
     </row>
     <row r="27">
@@ -1425,31 +1425,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7.842275012557476</v>
+        <v>7.271497015746396</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.821315211094289</v>
+        <v>3.38541492060166</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12.44084786832358</v>
+        <v>14.49579796061248</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.610621601716536</v>
+        <v>0.3770914103345309</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.233971241461262</v>
+        <v>3.360471258373939</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7.538558144143591</v>
+        <v>7.15103904650138</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.52846715974425</v>
+        <v>2.577231696743585</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.130487518621877</v>
+        <v>2.104812270989303</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7.194367973690689</v>
+        <v>7.025455834053639</v>
       </c>
     </row>
     <row r="28">
@@ -1479,7 +1479,7 @@
         <v>0.2015724670459107</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.582338912543387</v>
+        <v>1.582338912543386</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.4909630617186783</v>
@@ -1488,7 +1488,7 @@
         <v>0.4216068920249668</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.726843015214254</v>
+        <v>1.726843015214255</v>
       </c>
     </row>
     <row r="29">
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5876510308525024</v>
+        <v>0.5109158226799537</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1800456490936897</v>
+        <v>0.1321132311506551</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9076797830776316</v>
+        <v>0.9178260940861099</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4028482858428777</v>
+        <v>-0.3544708631982961</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.09574019360315275</v>
+        <v>-0.07603718568160729</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8260294981279969</v>
+        <v>0.7566438838570906</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1419609093125463</v>
+        <v>0.1891010318212656</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0868959234009373</v>
+        <v>0.1434325465711014</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.190954374115476</v>
+        <v>1.126169094156158</v>
       </c>
     </row>
     <row r="30">
@@ -1534,31 +1534,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.766446831627142</v>
+        <v>1.746510213648094</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.209901713425606</v>
+        <v>1.228558568363031</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.607584042589708</v>
+        <v>2.597809685336613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07967330771562514</v>
+        <v>0.08249814466271869</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5025243498074267</v>
+        <v>0.5172451008925283</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.930244625185822</v>
+        <v>2.744456479662503</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8296780686097652</v>
+        <v>0.8329490088539612</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7088220028634091</v>
+        <v>0.7231232323997444</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.429064176528442</v>
+        <v>2.379340683535454</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1575,7 @@
         <v>0.8365639345151586</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.147476312639177</v>
+        <v>2.147476312639178</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4761111957372998</v>
@@ -1584,7 +1584,7 @@
         <v>0.733314556516199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5.756501246997157</v>
+        <v>5.756501246997156</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9355755420086828</v>
@@ -1593,7 +1593,7 @@
         <v>0.8034109432592538</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3.290659147080026</v>
+        <v>3.290659147080027</v>
       </c>
     </row>
     <row r="32">
@@ -1604,31 +1604,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5706005344438384</v>
+        <v>0.452151620860808</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1268541800403566</v>
+        <v>0.1086334562600995</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8761897462082826</v>
+        <v>0.9542468514768954</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8944250311921697</v>
+        <v>-0.8372960552638956</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3047799086451388</v>
+        <v>-0.280367410756344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.636633272709704</v>
+        <v>1.71281044692423</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.183887312866997</v>
+        <v>0.2596459875488039</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1174738232264967</v>
+        <v>0.1554331972053336</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.83555896095187</v>
+        <v>1.687551170138016</v>
       </c>
     </row>
     <row r="33">
@@ -1639,31 +1639,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.086117256509475</v>
+        <v>3.060619095489931</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.046262285046072</v>
+        <v>2.252746425672596</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.254960465199834</v>
+        <v>4.496214157092889</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9170898701515497</v>
+        <v>1.214684116562802</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.723397858136778</v>
+        <v>3.66155796445856</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>17.30009792495099</v>
+        <v>17.73047322181736</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.973785534029444</v>
+        <v>2.070509910628307</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.739717022267387</v>
+        <v>1.704699754939389</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>5.705646580254811</v>
+        <v>5.388101562610845</v>
       </c>
     </row>
     <row r="34">
